--- a/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -836,12 +836,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,31 +990,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,7 +1008,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,16 +1044,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,14 +1053,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,8 +1068,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,6 +1089,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1119,7 +1121,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,7 +1140,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,7 +1203,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1269,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,109 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,31 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,17 +1537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,37 +1561,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,17 +1606,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1632,146 +1635,152 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,7 +1810,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1820,7 +1829,7 @@
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1831,7 +1840,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1842,7 +1851,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1853,196 +1862,196 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2084,11 +2093,13 @@
     <cellStyle name="Title" xfId="41" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="42" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="48" builtinId="40"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4437,10 +4448,10 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>

--- a/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8235" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="10410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -836,10 +836,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -998,15 +998,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,16 +1023,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,22 +1052,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1075,8 +1059,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,16 +1095,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,6 +1110,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1120,15 +1126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1203,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,13 +1269,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,79 +1305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,13 +1335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,43 +1359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,17 +1537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,7 +1556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,17 +1576,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,176 +1634,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1810,7 +1810,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1829,7 +1829,7 @@
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1840,7 +1840,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1851,7 +1851,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1862,196 +1862,196 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -4448,10 +4448,10 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>

--- a/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="10410" activeTab="2"/>
+    <workbookView windowWidth="15360" windowHeight="10410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$A$3:$N$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$A$3:$N$37</definedName>
     <definedName name="ActualBurnDown" localSheetId="3">#REF!</definedName>
     <definedName name="ActualBurnDown" localSheetId="1">#REF!</definedName>
     <definedName name="ActualBurnDown">#REF!</definedName>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
   <si>
     <t xml:space="preserve"> Airline Ticket Reservation System</t>
   </si>
@@ -379,6 +379,9 @@
     <t>Critical</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>US_2</t>
   </si>
   <si>
@@ -445,15 +448,15 @@
     <t>US_5a</t>
   </si>
   <si>
-    <t>2- Admin should be listed with the flight details.                 3- Admin should be able to view, update and add new flights</t>
+    <t>2- Admin should be listed with the flight details.
+3- Admin should be able to view, update and add new flights</t>
   </si>
   <si>
     <t>US_5b</t>
   </si>
   <si>
     <t xml:space="preserve">4-Below are the fields to be listed for the admin to fill- 
-Airlines Name 
-Flight Number
+Airlines Name - Select from drop down
 Flight Model - Selected from drop down
 Flight type - domestic,international - Drop down
 No of seats - should be updated for Economy and business class seperately
@@ -470,7 +473,7 @@
   </si>
   <si>
     <t>1-Schedule flight page should list all the flights available.
-2-Admin should select the flight for which he want to update the schedule</t>
+2-Admin should select the flight for which he/she want to update the schedule</t>
   </si>
   <si>
     <t>US_6a</t>
@@ -688,7 +691,7 @@
   </si>
   <si>
     <t>1- User should be displayed with the list of tickets they have booked so far
-2- Date of travel, flight name, source, destination, no of passengers travelled ,travelled/cancelled status should be the details.</t>
+2- Date of travel, flight name, source, destination, no of passengers travelled, status should be the details.</t>
   </si>
   <si>
     <t>US_16</t>
@@ -825,9 +828,6 @@
     <t>Remaining</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
 </sst>
@@ -836,10 +836,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -998,19 +998,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,14 +1023,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,8 +1059,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,42 +1119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1102,33 +1126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1203,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,91 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,37 +1329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,19 +1365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,21 +1537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1585,6 +1570,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1596,26 +1596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,123 +1614,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1759,22 +1759,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1810,7 +1810,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1829,7 +1829,7 @@
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1840,7 +1840,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1851,7 +1851,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1862,196 +1862,196 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -4448,10 +4448,10 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>
@@ -4538,7 +4538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:8">
+    <row r="4" ht="72" spans="1:12">
       <c r="A4" s="20" t="s">
         <v>53</v>
       </c>
@@ -4563,22 +4563,34 @@
       <c r="H4" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="84" spans="1:8">
+      <c r="I4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="84" spans="1:12">
       <c r="A5" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>58</v>
@@ -4589,22 +4601,34 @@
       <c r="H5" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" ht="120" spans="1:8">
+      <c r="I5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="120" spans="1:12">
       <c r="A6" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>58</v>
@@ -4615,22 +4639,34 @@
       <c r="H6" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" ht="60" spans="1:8">
+      <c r="I6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="60" spans="1:12">
       <c r="A7" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>58</v>
@@ -4641,22 +4677,34 @@
       <c r="H7" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" ht="36" spans="1:8">
+      <c r="I7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="1:12">
       <c r="A8" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>58</v>
@@ -4667,56 +4715,92 @@
       <c r="H8" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" ht="24" spans="1:8">
+      <c r="I8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" ht="120" spans="1:8">
+      <c r="I9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:12">
       <c r="A10" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" ht="36" spans="1:8">
+      <c r="I10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:12">
       <c r="A11" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>58</v>
@@ -4727,73 +4811,110 @@
       <c r="H11" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" ht="120" spans="1:8">
+      <c r="I11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="120" spans="1:12">
       <c r="A12" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" ht="24" spans="1:8">
+      <c r="I12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="24" spans="1:12">
       <c r="A13" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" ht="48" spans="1:8">
+      <c r="I13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="48" spans="1:11">
       <c r="A14" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" ht="36" spans="1:8">
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" ht="36" spans="1:11">
       <c r="A15" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>58</v>
@@ -4804,22 +4925,23 @@
       <c r="H15" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" ht="36" spans="1:8">
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" ht="36" spans="1:12">
       <c r="A16" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>58</v>
@@ -4830,13 +4952,25 @@
       <c r="H16" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" ht="108" spans="1:8">
+      <c r="I16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="108" spans="1:12">
       <c r="A17" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>58</v>
@@ -4847,39 +4981,63 @@
       <c r="H17" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" ht="72" spans="1:8">
+      <c r="I17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="72" spans="1:12">
       <c r="A18" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" ht="60" spans="1:8">
+      <c r="I18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="60" spans="1:12">
       <c r="A19" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>58</v>
@@ -4890,22 +5048,34 @@
       <c r="H19" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" ht="96" spans="1:8">
+      <c r="I19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="96" spans="1:12">
       <c r="A20" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>58</v>
@@ -4916,56 +5086,70 @@
       <c r="H20" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" ht="36" spans="1:8">
+      <c r="I20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="L20" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:11">
       <c r="A21" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" ht="36" spans="1:8">
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" ht="36" spans="1:11">
       <c r="A22" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" ht="60" spans="1:8">
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" ht="60" spans="1:11">
       <c r="A23" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>58</v>
@@ -4976,13 +5160,14 @@
       <c r="H23" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" ht="24" spans="1:8">
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" ht="24" spans="1:11">
       <c r="A24" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>58</v>
@@ -4993,13 +5178,14 @@
       <c r="H24" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" ht="48" spans="1:8">
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" ht="48" spans="1:11">
       <c r="A25" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>58</v>
@@ -5010,62 +5196,65 @@
       <c r="H25" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" ht="84" spans="1:6">
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" ht="84" spans="1:11">
       <c r="A26" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" ht="72" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" ht="72" spans="1:11">
       <c r="A27" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" ht="48" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" ht="48" spans="1:11">
       <c r="A28" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>58</v>
@@ -5076,25 +5265,26 @@
       <c r="H28" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" ht="60" spans="1:8">
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" ht="48" spans="1:11">
       <c r="A29" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" s="20">
         <v>2</v>
@@ -5102,25 +5292,26 @@
       <c r="H29" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" ht="132" spans="1:8">
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" ht="132" spans="1:12">
       <c r="A30" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="20">
         <v>1</v>
@@ -5128,148 +5319,172 @@
       <c r="H30" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" ht="48" spans="1:8">
+      <c r="I30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
+      <c r="L30" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="48" spans="1:12">
       <c r="A31" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G31" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="20">
         <v>3</v>
       </c>
+      <c r="I31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1</v>
+      </c>
+      <c r="L31" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" ht="96" spans="1:6">
       <c r="A32" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" ht="60" spans="1:6">
       <c r="A33" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" ht="60" spans="1:6">
       <c r="A34" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:6">
       <c r="A35" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" ht="132" spans="1:6">
       <c r="A36" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" ht="36" spans="1:8">
       <c r="A37" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>58</v>
@@ -5283,7 +5498,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="A3:N8">
+  <autoFilter ref="A3:N37">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -5375,7 +5590,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I93">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H87 L4:L85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 H4:H87 L32:L85">
       <formula1>"1,2,3,5,8,13,21"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
@@ -5411,12 +5626,12 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5427,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5435,16 +5650,16 @@
         <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>30</v>
@@ -5538,7 +5753,7 @@
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="3:3">

--- a/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$A$3:$N$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$A$3:$N$40</definedName>
     <definedName name="ActualBurnDown" localSheetId="3">#REF!</definedName>
     <definedName name="ActualBurnDown" localSheetId="1">#REF!</definedName>
     <definedName name="ActualBurnDown">#REF!</definedName>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
   <si>
     <t xml:space="preserve"> Airline Ticket Reservation System</t>
   </si>
@@ -735,9 +735,19 @@
   <si>
     <t>1- Admin should have option to Generate report
 2- Admin can select the list of details he want (For eg - flight number, flight name, source, destination etc)
-3- Admin should have option to select from and To date.
-4- Clicking generate report should display the fields selected by the Admin, for the period admin selected.
-5-Admin should have option to download the result in the form of excel sheet</t>
+3- Admin should have option to select from and To date.</t>
+  </si>
+  <si>
+    <t>US_18a</t>
+  </si>
+  <si>
+    <t>4- Clicking generate report should display the fields selected by the Admin, for the period admin selected.</t>
+  </si>
+  <si>
+    <t>US_18b</t>
+  </si>
+  <si>
+    <t>5-Admin should have option to download the result in the form of excel sheet</t>
   </si>
   <si>
     <t>US_19</t>
@@ -750,8 +760,13 @@
   </si>
   <si>
     <t>1- Admin should have option to create questionnareis for user feedback.
-2- 3 to 4 questions can be created by admin based on the service and travel experience.
-3- Submitting the questions, it should be available for the users</t>
+2- 3 to 4 questions can be created by admin based on the service and travel experience.</t>
+  </si>
+  <si>
+    <t>US_19a</t>
+  </si>
+  <si>
+    <t>3- Submitting the questions, it should be available for the users</t>
   </si>
   <si>
     <t>US_20</t>
@@ -990,70 +1005,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,9 +1027,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,15 +1110,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,6 +1126,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1119,16 +1141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,7 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,13 +1242,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,73 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,49 +1386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,11 +1552,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,30 +1600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1596,6 +1611,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,173 +1649,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1810,7 +1825,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1829,7 +1844,7 @@
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1840,7 +1855,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1851,7 +1866,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1862,196 +1877,196 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -4446,12 +4461,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>
@@ -5217,6 +5232,12 @@
       <c r="F26" s="20" t="s">
         <v>128</v>
       </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>3</v>
+      </c>
       <c r="K26" s="21"/>
     </row>
     <row r="27" ht="72" spans="1:11">
@@ -5238,6 +5259,12 @@
       <c r="F27" s="20" t="s">
         <v>134</v>
       </c>
+      <c r="G27" s="20">
+        <v>2</v>
+      </c>
+      <c r="H27" s="20">
+        <v>3</v>
+      </c>
       <c r="K27" s="21"/>
     </row>
     <row r="28" ht="48" spans="1:11">
@@ -5370,7 +5397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" ht="96" spans="1:6">
+    <row r="32" ht="48" spans="1:8">
       <c r="A32" s="20" t="s">
         <v>153</v>
       </c>
@@ -5389,105 +5416,108 @@
       <c r="F32" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" ht="60" spans="1:6">
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
+      <c r="H32" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="24" spans="1:8">
       <c r="A33" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>160</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" ht="60" spans="1:6">
+      <c r="G33" s="20">
+        <v>2</v>
+      </c>
+      <c r="H33" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="24" spans="1:8">
       <c r="A34" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" ht="36" spans="1:6">
+      <c r="G34" s="20">
+        <v>2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="48" spans="1:8">
       <c r="A35" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" ht="132" spans="1:6">
+      <c r="G35" s="20">
+        <v>2</v>
+      </c>
+      <c r="H35" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" ht="36" spans="1:8">
+      <c r="G36" s="20">
+        <v>2</v>
+      </c>
+      <c r="H36" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" ht="60" spans="1:8">
       <c r="A37" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="G37" s="20">
         <v>2</v>
@@ -5496,9 +5526,111 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38" ht="36" spans="1:8">
+      <c r="A38" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="20">
+        <v>2</v>
+      </c>
+      <c r="H38" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" ht="132" spans="1:12">
+      <c r="A39" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="20">
+        <v>2</v>
+      </c>
+      <c r="H39" s="20">
+        <v>5</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="21">
+        <v>2</v>
+      </c>
+      <c r="K39" s="20">
+        <v>2</v>
+      </c>
+      <c r="L39" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="36" spans="1:12">
+      <c r="A40" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="20">
+        <v>2</v>
+      </c>
+      <c r="H40" s="20">
+        <v>3</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="21">
+        <v>2</v>
+      </c>
+      <c r="K40" s="20">
+        <v>2</v>
+      </c>
+      <c r="L40" s="20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <autoFilter ref="A3:N37">
+  <autoFilter ref="A3:N40">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -5531,27 +5663,27 @@
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:E34">
+  <conditionalFormatting sqref="B37:E37">
     <cfRule type="expression" dxfId="0" priority="6">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:E35">
+  <conditionalFormatting sqref="B38:E38">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36">
+  <conditionalFormatting sqref="B39:C39">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:E36">
+  <conditionalFormatting sqref="D39:E39">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:E37">
+  <conditionalFormatting sqref="D40:E40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="rejected"</formula>
     </cfRule>
@@ -5566,12 +5698,12 @@
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 A5:A37">
+  <conditionalFormatting sqref="A4:D4 A5:A40">
     <cfRule type="expression" dxfId="0" priority="20">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G10 B6:D10 B29:D29 B30:F33 A38:F1048576 F29:G29 B37:C37 B19:D20 F19:G20 F34:F37 B11:G18 G30:G1048576 H88:H1048576">
+  <conditionalFormatting sqref="G6:G10 B6:D10 B29:D29 B30:G35 B11:G18 F19:G20 F29:G29 B19:D20 B40:C40 H91:H1048576 G36:G1048576 F37:F1048576 A41:D1048576 E41:E42 E44:E1048576 B36:F36">
     <cfRule type="expression" dxfId="0" priority="26">
       <formula>#REF!="rejected"</formula>
     </cfRule>
@@ -5587,11 +5719,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L32 H33 L33 H34 L34 H35 L35 H36 L36 H4:H32 H37:H90 L37:L88">
+      <formula1>"1,2,3,5,8,13,21"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33 I34 I35 I36 I4:I32 I37:I96">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 H4:H87 L32:L85">
-      <formula1>"1,2,3,5,8,13,21"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
@@ -5626,12 +5758,12 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5642,7 +5774,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5650,16 +5782,16 @@
         <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>30</v>
@@ -5758,7 +5890,7 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
+++ b/documents/Paper Work/04-Product_Backlog_A080-Airlines_Ticket_Reservation_System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="10410" activeTab="2"/>
+    <workbookView windowWidth="15360" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="190">
   <si>
     <t xml:space="preserve"> Airline Ticket Reservation System</t>
   </si>
@@ -852,8 +852,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="43">
@@ -1006,51 +1006,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,9 +1020,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,6 +1040,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1095,8 +1065,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,9 +1096,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,14 +1126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1141,9 +1133,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,55 +1218,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,19 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,13 +1290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,7 +1308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,37 +1332,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,17 +1552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,7 +1574,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,11 +1609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,16 +1635,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1654,148 +1654,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1825,7 +1825,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1844,7 +1844,7 @@
       <alignment vertical="top"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1855,7 +1855,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1866,7 +1866,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
@@ -1877,196 +1877,196 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="58" fontId="14" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -4463,10 +4463,10 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88666666666667" defaultRowHeight="12"/>
@@ -5114,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="36" spans="1:11">
+    <row r="21" ht="36" spans="1:12">
       <c r="A21" s="20" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5139,18 @@
       <c r="H21" s="20">
         <v>5</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="I21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" ht="36" spans="1:11">
       <c r="A22" s="20" t="s">
@@ -5719,11 +5730,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33 I34 I35 I36 I4:I32 I37:I96">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L32 H33 L33 H34 L34 H35 L35 H36 L36 H4:H32 H37:H90 L37:L88">
       <formula1>"1,2,3,5,8,13,21"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33 I34 I35 I36 I4:I32 I37:I96">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
